--- a/Jan'2021/Daily Sales Details/24.01.2021/Bank Statement.xlsx
+++ b/Jan'2021/Daily Sales Details/24.01.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="173">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -762,9 +762,6 @@
     <t>23.01.2021</t>
   </si>
   <si>
-    <t>Date :24-01-2021</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -772,6 +769,9 @@
   </si>
   <si>
     <t>24.01.2021</t>
+  </si>
+  <si>
+    <t>Date :25-01-2021</t>
   </si>
 </sst>
 </file>
@@ -2437,6 +2437,12 @@
     <xf numFmtId="2" fontId="19" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2453,12 +2459,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3012,48 +3012,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="235" t="s">
+      <c r="A2" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
     </row>
     <row r="3" spans="1:25" s="108" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="246" t="s">
@@ -3084,34 +3084,34 @@
       <c r="Y3" s="111"/>
     </row>
     <row r="4" spans="1:25" s="111" customFormat="1">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="238" t="s">
+      <c r="C4" s="240" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="240" t="s">
+      <c r="D4" s="234" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="240" t="s">
+      <c r="E4" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="240" t="s">
+      <c r="F4" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="240" t="s">
+      <c r="G4" s="234" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="240" t="s">
+      <c r="H4" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="240" t="s">
+      <c r="I4" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="240" t="s">
+      <c r="J4" s="234" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="249" t="s">
@@ -3145,16 +3145,16 @@
       <c r="X4" s="110"/>
     </row>
     <row r="5" spans="1:25" s="111" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="237"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="241"/>
-      <c r="F5" s="241"/>
-      <c r="G5" s="241"/>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
+      <c r="A5" s="239"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
       <c r="K5" s="250"/>
       <c r="L5" s="252"/>
       <c r="M5" s="254"/>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="32" spans="1:24" s="126" customFormat="1">
       <c r="A32" s="125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="124"/>
       <c r="C32" s="125"/>
@@ -6171,6 +6171,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -6187,10 +6191,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="54">
         <v>488000</v>
@@ -8323,7 +8323,7 @@
         <v>9300</v>
       </c>
       <c r="C6" s="230" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
@@ -8334,7 +8334,7 @@
         <v>6039</v>
       </c>
       <c r="C7" s="230" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75">
@@ -8356,7 +8356,7 @@
         <v>13798</v>
       </c>
       <c r="C9" s="230" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
@@ -8367,7 +8367,7 @@
         <v>7075</v>
       </c>
       <c r="C10" s="230" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75">
@@ -8433,10 +8433,10 @@
         <v>2237</v>
       </c>
       <c r="C16" s="230" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75">
@@ -8527,7 +8527,7 @@
         <v>700</v>
       </c>
       <c r="C25" s="230" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
@@ -8564,7 +8564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75">
       <c r="A2" s="274" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="275"/>
       <c r="C2" s="275"/>
@@ -8996,8 +8996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="5" spans="1:17" s="161" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="286" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B5" s="287"/>
       <c r="C5" s="286" t="s">
@@ -10815,8 +10815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11198,7 +11198,7 @@
       <c r="L13" s="199"/>
       <c r="M13" s="200"/>
       <c r="N13" s="222">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O13" s="222"/>
       <c r="P13" s="222"/>
@@ -11353,7 +11353,7 @@
       <c r="L18" s="199"/>
       <c r="M18" s="200"/>
       <c r="N18" s="222">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O18" s="222"/>
       <c r="P18" s="222">
@@ -11412,9 +11412,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="221"/>
-      <c r="C21" s="152" t="s">
-        <v>63</v>
-      </c>
+      <c r="C21" s="152"/>
       <c r="D21" s="177"/>
       <c r="E21" s="170"/>
       <c r="F21" s="199"/>
@@ -11425,9 +11423,7 @@
       <c r="K21" s="202"/>
       <c r="L21" s="199"/>
       <c r="M21" s="200"/>
-      <c r="N21" s="222">
-        <v>10</v>
-      </c>
+      <c r="N21" s="222"/>
       <c r="O21" s="222"/>
       <c r="P21" s="222"/>
       <c r="Q21" s="225"/>
@@ -11610,7 +11606,7 @@
       </c>
       <c r="N28" s="179">
         <f>SUM(N7:N27)</f>
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="O28" s="179">
         <f>SUM(O7:O27)</f>
